--- a/Test Scenario Template.xlsx
+++ b/Test Scenario Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\001 Live Tech\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AED6EAC-1A2A-4E00-BAD2-FFCC30E59DD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8826467B-F8E9-427B-8230-96D72980D65C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C33B4B7D-9D5B-43D5-B5D7-3729FAB2AFB0}"/>
   </bookViews>
@@ -153,11 +153,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -474,27 +474,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8AEC9F5-465A-4EB2-8C63-A9FDBE574F3A}">
   <dimension ref="A3:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:E22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.6640625" customWidth="1"/>
     <col min="3" max="3" width="24.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="39.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="60.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:8" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -503,10 +503,10 @@
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -515,9 +515,9 @@
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
       <c r="E5" s="2" t="s">
         <v>4</v>
       </c>
@@ -529,9 +529,9 @@
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
       <c r="E6" s="2" t="s">
         <v>5</v>
       </c>
@@ -558,112 +558,112 @@
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:8" ht="21" x14ac:dyDescent="0.4">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="4" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="21" x14ac:dyDescent="0.4">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
     </row>
     <row r="10" spans="1:8" ht="21" x14ac:dyDescent="0.4">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:8" ht="21" x14ac:dyDescent="0.4">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
     </row>
     <row r="12" spans="1:8" ht="21" x14ac:dyDescent="0.4">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
     </row>
     <row r="13" spans="1:8" ht="21" x14ac:dyDescent="0.4">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
     </row>
     <row r="14" spans="1:8" ht="21" x14ac:dyDescent="0.4">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
     </row>
     <row r="15" spans="1:8" ht="21" x14ac:dyDescent="0.4">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
     </row>
     <row r="16" spans="1:8" ht="21" x14ac:dyDescent="0.4">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
     </row>
     <row r="17" spans="1:5" ht="21" x14ac:dyDescent="0.4">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
     </row>
     <row r="18" spans="1:5" ht="21" x14ac:dyDescent="0.4">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
     </row>
     <row r="19" spans="1:5" ht="21" x14ac:dyDescent="0.4">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
     </row>
     <row r="20" spans="1:5" ht="21" x14ac:dyDescent="0.4">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
     </row>
     <row r="21" spans="1:5" ht="21" x14ac:dyDescent="0.4">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="2">
